--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_20.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_20.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978579200864697</v>
+        <v>0.8455930748727748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7791370460099526</v>
+        <v>0.6240816564342093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7671377204780893</v>
+        <v>0.7192876037381616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9890205024979194</v>
+        <v>0.8795768302754529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08916464826819011</v>
+        <v>0.3659741567534506</v>
       </c>
       <c r="G2" t="n">
-        <v>1.476911590311838</v>
+        <v>2.513767694369253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8329348717191241</v>
+        <v>1.004091964788663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03813037150789113</v>
+        <v>0.3734887213350494</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9505198888692179</v>
+        <v>1.15094940393318</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2986045014198381</v>
+        <v>0.6049579793286891</v>
       </c>
       <c r="L2" t="n">
-        <v>2.370931144659394</v>
+        <v>0.7897437615288848</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3033072238222094</v>
+        <v>0.614485462766999</v>
       </c>
       <c r="N2" t="n">
-        <v>134.83454127563</v>
+        <v>36.01038511607404</v>
       </c>
       <c r="O2" t="n">
-        <v>276.1697138188464</v>
+        <v>72.97496870429987</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9789492049510182</v>
+        <v>0.8455714353623662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7790241257593701</v>
+        <v>0.6229200311976542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7683732102915247</v>
+        <v>0.7195097986569228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9888773674007326</v>
+        <v>0.8756631740577598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08762449638094059</v>
+        <v>0.3660254465616493</v>
       </c>
       <c r="G3" t="n">
-        <v>1.477666688547434</v>
+        <v>2.52153548767489</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8285155962942807</v>
+        <v>1.003297186447856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03862746114523705</v>
+        <v>0.3856268045613471</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9421947782341636</v>
+        <v>1.153573676758104</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2960143516469102</v>
+        <v>0.6050003690591017</v>
       </c>
       <c r="L3" t="n">
-        <v>2.347250883134834</v>
+        <v>0.78971429496152</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3006762817795577</v>
+        <v>0.6145285200932914</v>
       </c>
       <c r="N3" t="n">
-        <v>134.8693893621594</v>
+        <v>36.01010484374575</v>
       </c>
       <c r="O3" t="n">
-        <v>276.2045619053757</v>
+        <v>72.97468843197157</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9793068333410428</v>
+        <v>0.8455928389308984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7789350155455695</v>
+        <v>0.6224742528742213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7696437220583577</v>
+        <v>0.7195884318628041</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9887257495575998</v>
+        <v>0.8743748721807278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08613585865991762</v>
+        <v>0.3659747159811482</v>
       </c>
       <c r="G4" t="n">
-        <v>1.478262568957432</v>
+        <v>2.524516409376306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8239710493728243</v>
+        <v>1.003015920029834</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03915401025960082</v>
+        <v>0.3896224328266288</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9340683797041672</v>
+        <v>1.150771382043962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2934891116547897</v>
+        <v>0.6049584415322661</v>
       </c>
       <c r="L4" t="n">
-        <v>2.324362666173258</v>
+        <v>0.7897434402463298</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2981112717818752</v>
+        <v>0.6144859322498202</v>
       </c>
       <c r="N4" t="n">
-        <v>134.903658954729</v>
+        <v>36.01038205997153</v>
       </c>
       <c r="O4" t="n">
-        <v>276.2388314979454</v>
+        <v>72.97496564819735</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9796539345294879</v>
+        <v>0.8455981410471867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7788587965237264</v>
+        <v>0.6219661445766389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7709615671205416</v>
+        <v>0.7196280668701844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9885462723281442</v>
+        <v>0.8730153602974031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08469104069651298</v>
+        <v>0.3659621489441712</v>
       </c>
       <c r="G5" t="n">
-        <v>1.478772245907454</v>
+        <v>2.527914131901863</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8192571939984397</v>
+        <v>1.002874147906605</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03977731141113828</v>
+        <v>0.3938389167151045</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9259594350117772</v>
+        <v>1.14818603705452</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2910172515444969</v>
+        <v>0.6049480547486463</v>
       </c>
       <c r="L5" t="n">
-        <v>2.302148190112774</v>
+        <v>0.7897506601493606</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2956004823457989</v>
+        <v>0.6144753818847414</v>
       </c>
       <c r="N5" t="n">
-        <v>134.9374909196391</v>
+        <v>36.01045073822825</v>
       </c>
       <c r="O5" t="n">
-        <v>276.2726634628555</v>
+        <v>72.97503432645406</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.979988021939184</v>
+        <v>0.8455947749269154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.77877024209281</v>
+        <v>0.6214465922184642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7723089146761031</v>
+        <v>0.7196632747747304</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9883331261691669</v>
+        <v>0.8716415286333776</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08330039293457707</v>
+        <v>0.3659701272976472</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479364409794748</v>
+        <v>2.531388380913296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8144378099158964</v>
+        <v>1.002748211273515</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04051754039026455</v>
+        <v>0.3980998129587441</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9179108875873363</v>
+        <v>1.145292727635595</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2886180745112424</v>
+        <v>0.6049546489594465</v>
       </c>
       <c r="L6" t="n">
-        <v>2.280766595892224</v>
+        <v>0.7897460764962252</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2931635206725678</v>
+        <v>0.6144820799477699</v>
       </c>
       <c r="N6" t="n">
-        <v>134.9706040254374</v>
+        <v>36.0104071366343</v>
       </c>
       <c r="O6" t="n">
-        <v>276.3057765686538</v>
+        <v>72.97499072486012</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9803148281660121</v>
+        <v>0.8452965876974988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7786670282382064</v>
+        <v>0.6201555062377603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7734968055307485</v>
+        <v>0.7193985900004666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9881160243321367</v>
+        <v>0.8682248878773504</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08194005329071373</v>
+        <v>0.3666768884727076</v>
       </c>
       <c r="G7" t="n">
-        <v>1.480054601315738</v>
+        <v>2.540021878811167</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8101887932066985</v>
+        <v>1.003694973363752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04127150692647782</v>
+        <v>0.4086964181647748</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9098889994663409</v>
+        <v>1.15787481715109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2862517306335697</v>
+        <v>0.6055385111392235</v>
       </c>
       <c r="L7" t="n">
-        <v>2.259850997375224</v>
+        <v>0.7893400343114878</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2907599092442977</v>
+        <v>0.6150751373732305</v>
       </c>
       <c r="N7" t="n">
-        <v>135.003534713002</v>
+        <v>36.00654846319904</v>
       </c>
       <c r="O7" t="n">
-        <v>276.3387072562184</v>
+        <v>72.97113205142486</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9806306496651767</v>
+        <v>0.845237193081802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.778603188364549</v>
+        <v>0.6194511460393697</v>
       </c>
       <c r="D8" t="n">
-        <v>0.774886135317608</v>
+        <v>0.7193241460171513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9878635144888825</v>
+        <v>0.8666408402205724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0806254378690076</v>
+        <v>0.3668176651534</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48048149884484</v>
+        <v>2.544731938701085</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8052192411170718</v>
+        <v>1.00396125517556</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04214844087822345</v>
+        <v>0.4136092927819855</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9020247927019035</v>
+        <v>1.155460178194519</v>
       </c>
       <c r="K8" t="n">
-        <v>0.283946188333296</v>
+        <v>0.6056547408824602</v>
       </c>
       <c r="L8" t="n">
-        <v>2.239638421428694</v>
+        <v>0.7892591565369219</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2884180569574915</v>
+        <v>0.6151931976187359</v>
       </c>
       <c r="N8" t="n">
-        <v>135.035882145895</v>
+        <v>36.00578075916238</v>
       </c>
       <c r="O8" t="n">
-        <v>276.3710546891114</v>
+        <v>72.97036434738821</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9809289424121425</v>
+        <v>0.8446739951124405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7785046532268265</v>
+        <v>0.6183984633254436</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7760995423216537</v>
+        <v>0.7187016511513886</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9875603480104911</v>
+        <v>0.8639742551121286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07938378634629126</v>
+        <v>0.368152552832515</v>
       </c>
       <c r="G9" t="n">
-        <v>1.481140403764504</v>
+        <v>2.551771232856268</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8008789546209811</v>
+        <v>1.006187883216067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04320129875697576</v>
+        <v>0.4218796236889185</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8942692504962406</v>
+        <v>1.185318290277793</v>
       </c>
       <c r="K9" t="n">
-        <v>0.281751284551271</v>
+        <v>0.6067557604444436</v>
       </c>
       <c r="L9" t="n">
-        <v>2.220547685622883</v>
+        <v>0.7884922486637487</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2861885856349984</v>
+        <v>0.6163115571382047</v>
       </c>
       <c r="N9" t="n">
-        <v>135.0669222675378</v>
+        <v>35.99851576194605</v>
       </c>
       <c r="O9" t="n">
-        <v>276.4020948107542</v>
+        <v>72.96309935017187</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.981213014538979</v>
+        <v>0.8445611576816692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7783810953581506</v>
+        <v>0.6174669985940195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7772539984028118</v>
+        <v>0.7184967930165647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9872281299613535</v>
+        <v>0.8621467154209953</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07820132853450769</v>
+        <v>0.3684199992798988</v>
       </c>
       <c r="G10" t="n">
-        <v>1.481966635801271</v>
+        <v>2.557999941804301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7967495321578881</v>
+        <v>1.006920648885976</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04435504897485633</v>
+        <v>0.4275476812893929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8866908423353895</v>
+        <v>1.182695727094058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2796450044869525</v>
+        <v>0.6069761109631077</v>
       </c>
       <c r="L10" t="n">
-        <v>2.202367069505343</v>
+        <v>0.7883385976941878</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2840491337651745</v>
+        <v>0.6165353779572681</v>
       </c>
       <c r="N10" t="n">
-        <v>135.0969372852857</v>
+        <v>35.99706337842527</v>
       </c>
       <c r="O10" t="n">
-        <v>276.4321098285021</v>
+        <v>72.96164696665109</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.981495108207205</v>
+        <v>0.8444186902822541</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7782431787570325</v>
+        <v>0.6164703408528461</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7783398187032018</v>
+        <v>0.7182495842993835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.986913945507941</v>
+        <v>0.8602424539457778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07702710610950987</v>
+        <v>0.368757674460742</v>
       </c>
       <c r="G11" t="n">
-        <v>1.482888884747995</v>
+        <v>2.564664596708714</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7928656159028716</v>
+        <v>1.007804900133347</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04544617085255169</v>
+        <v>0.4334536891207212</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8790508941781242</v>
+        <v>1.180145758742697</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2775375760316247</v>
+        <v>0.6072542090926518</v>
       </c>
       <c r="L11" t="n">
-        <v>2.184313074738881</v>
+        <v>0.7881445995332822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.281908515418331</v>
+        <v>0.6168178558543564</v>
       </c>
       <c r="N11" t="n">
-        <v>135.1271957833586</v>
+        <v>35.9952311188955</v>
       </c>
       <c r="O11" t="n">
-        <v>276.4623683265751</v>
+        <v>72.95981470712132</v>
       </c>
     </row>
   </sheetData>
